--- a/時間.xlsx
+++ b/時間.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DavidHsu\Documents\GitHub\Skills-Competition-Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Skills-Competition-Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8952"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -393,18 +393,18 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="3" width="33.5" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -412,19 +412,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -432,19 +436,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -455,23 +463,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
     </row>

--- a/時間.xlsx
+++ b/時間.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Skills-Competition-Software\"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>大約時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,289 @@
   </si>
   <si>
     <t>大數乘法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105-2</t>
+  </si>
+  <si>
+    <t>105-3</t>
+  </si>
+  <si>
+    <t>105-4</t>
+  </si>
+  <si>
+    <t>105-5</t>
+  </si>
+  <si>
+    <t>105-6</t>
+  </si>
+  <si>
+    <t>104-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94-6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,14 +383,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -390,16 +670,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <sheetPr codeName="工作表1"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.44140625" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
   </cols>
@@ -408,7 +689,7 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -464,24 +745,376 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>77</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/時間.xlsx
+++ b/時間.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Skills-Competition-Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DavidHsu\Documents\GitHub\Skills-Competition-Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8952"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -343,7 +343,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -674,18 +674,18 @@
   <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -701,7 +701,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -709,7 +709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -717,7 +717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -725,7 +725,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -733,7 +733,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -752,7 +752,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -760,12 +760,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -773,12 +773,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -786,332 +789,332 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>

--- a/時間.xlsx
+++ b/時間.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>大約時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -337,6 +337,10 @@
   </si>
   <si>
     <t>94-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘗試了第三次並參考程式碼才成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,7 +678,7 @@
   <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -764,6 +768,12 @@
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B10" s="1">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">

--- a/時間.xlsx
+++ b/時間.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DavidHsu\Documents\GitHub\Skills-Competition-Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Skills-Competition-Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8952"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -347,7 +347,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -677,19 +677,19 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -705,7 +705,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -713,7 +713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -721,7 +721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -729,7 +729,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -737,7 +737,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -748,7 +748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -756,7 +756,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -764,7 +764,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -775,7 +775,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -783,7 +783,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -791,7 +791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -799,332 +799,344 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>80</v>
       </c>

--- a/時間.xlsx
+++ b/時間.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -678,7 +678,7 @@
   <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -827,10 +827,17 @@
       <c r="A17" t="s">
         <v>63</v>
       </c>
+      <c r="B17" s="1">
+        <f>5</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">

--- a/時間.xlsx
+++ b/時間.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>大約時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,6 +341,14 @@
   </si>
   <si>
     <t>嘗試了第三次並參考程式碼才成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數學機率問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用BigInteger</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,8 +685,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -823,16 +831,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="1">
-        <f>5</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -840,7 +847,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -848,67 +855,85 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>24</v>
       </c>

--- a/時間.xlsx
+++ b/時間.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Skills-Competition-Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DavidHsu\Documents\GitHub\Skills-Competition-Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8952"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -355,7 +355,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -685,19 +685,19 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -713,7 +713,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -721,7 +721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -729,7 +729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -737,7 +737,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -745,7 +745,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -756,7 +756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -764,7 +764,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -772,7 +772,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -783,7 +783,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -791,7 +791,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -799,7 +799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -807,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -815,7 +815,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -823,7 +823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -839,7 +839,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -847,7 +847,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -855,7 +855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -866,33 +866,39 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -903,272 +909,272 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>

--- a/時間.xlsx
+++ b/時間.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DavidHsu\Documents\GitHub\Skills-Competition-Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Skills-Competition-Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8952"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -355,7 +355,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -685,19 +685,19 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -713,7 +713,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -721,7 +721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -729,7 +729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -737,7 +737,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -745,7 +745,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -756,7 +756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -764,7 +764,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -772,7 +772,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -783,7 +783,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -791,7 +791,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -799,7 +799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -807,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -815,7 +815,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -823,7 +823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -839,7 +839,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -847,7 +847,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -855,7 +855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -866,7 +866,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -874,7 +874,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -882,7 +882,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -890,7 +890,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -898,7 +898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -909,272 +909,290 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>80</v>
       </c>

--- a/時間.xlsx
+++ b/時間.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Skills-Competition-Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DavidHsu\Documents\GitHub\Skills-Competition-Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8952"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -355,7 +355,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -685,19 +685,19 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="K27" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -713,7 +713,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -721,7 +721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -729,7 +729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -737,7 +737,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -745,7 +745,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -756,7 +756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -764,7 +764,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -772,7 +772,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -783,7 +783,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -791,7 +791,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -799,7 +799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -807,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -815,7 +815,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -823,7 +823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -839,7 +839,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -847,7 +847,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -855,7 +855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -866,7 +866,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -874,7 +874,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -882,7 +882,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -890,7 +890,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -898,7 +898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -909,7 +909,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -917,7 +917,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -925,7 +925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -933,7 +933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -941,7 +941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -949,7 +949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -957,242 +957,254 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>

--- a/時間.xlsx
+++ b/時間.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DavidHsu\Documents\GitHub\Skills-Competition-Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Skills-Competition-Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8952"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -355,8 +355,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -372,13 +372,28 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -395,11 +410,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -686,18 +707,18 @@
   <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="K27" sqref="K1:K1048576"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -705,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -713,7 +734,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -721,7 +742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -729,7 +750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -737,7 +758,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -745,7 +766,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -756,7 +777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -764,7 +785,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -772,7 +793,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -783,7 +804,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -791,7 +812,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -799,7 +820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -807,7 +828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -815,7 +836,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -823,7 +844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -831,7 +852,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -839,7 +860,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -847,7 +868,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -855,7 +876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -866,7 +887,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -874,7 +895,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -882,7 +903,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -890,7 +911,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -898,7 +919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -909,7 +930,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -917,7 +938,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -925,7 +946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -933,7 +954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -941,7 +962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -949,7 +970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -957,254 +978,258 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="3">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>80</v>
       </c>

--- a/時間.xlsx
+++ b/時間.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Skills-Competition-Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DavidHsu\Documents\GitHub\Skills-Competition-Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8952"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -355,7 +355,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -707,18 +707,18 @@
   <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -734,7 +734,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,7 +742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -750,7 +750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -758,7 +758,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -766,7 +766,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -777,7 +777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -785,7 +785,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -793,7 +793,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -804,7 +804,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -812,7 +812,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -820,7 +820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -828,7 +828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -836,7 +836,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -844,7 +844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -852,7 +852,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -860,7 +860,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -868,7 +868,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -876,7 +876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -887,7 +887,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -895,7 +895,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -903,7 +903,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -911,7 +911,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -919,7 +919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -930,7 +930,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -938,7 +938,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -946,7 +946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -954,7 +954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -962,7 +962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -970,7 +970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -978,7 +978,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>24</v>
       </c>
@@ -986,7 +986,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -994,7 +994,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>25</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>67</v>
       </c>
@@ -1010,13 +1010,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>59</v>
       </c>
@@ -1024,212 +1024,230 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
